--- a/biology/Botanique/Plantaginaceae/Plantaginaceae.xlsx
+++ b/biology/Botanique/Plantaginaceae/Plantaginaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Plantaginacées (Plantaginaceae) comprend des plantes dicotylédones ; elle se compose de 2-3 genres en classification classique et d'une centaine en classification phylogénique.
 Ce sont essentiellement des plantes herbacées, annuelles ou pérennes, des régions froides à tropicales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre Plantago, issu du latin planta, « plante des pieds » et ago « je pousse », en raison de la forme des feuilles de certaines espèces qui évoquent la plante des pieds[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre Plantago, issu du latin planta, « plante des pieds » et ago « je pousse », en raison de la forme des feuilles de certaines espèces qui évoquent la plante des pieds.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille (augmentée des Globulariacées, des Callitrichacées et des Hippuridacées, ainsi que des genres Antirrhinum, Asarina, Digitalis, Linaria et Veronica) dans l'ordre des Lamiales.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 200 espèces de Plantaginaceae au sens classique (c'est-à-dire dans la classification antérieure aux études phylogénétiques) sont caractérisées par des herbacées ou des plantes un peu ligneuses, à feuilles en rosette basale. Les petites fleurs discrètes sont blanches, brunâtres ou jaunâtres, sessiles, en épis ou en têtes denses, rarement solitaires ; les fleurs régulières ont un calice persistant à 4 divisions ; la corolle gamopétale, marcescente, scarieuse, imbriquée dans le bouton, a également 4 divisions ; l'androcée est composé de 4 étamines, longuement saillantes, alternes avec les lobes de la corolle, insérées à sa base, rarement sur le réceptacle ; les anthères sont mobiles, à 2 loges parallèles s'ouvrant en long ; l'ovaire libre comporte un style filiforme, à stigmate entier poilu-papilleux ; un fruit sec, à 1-4 loges à une ou plusieurs graines[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 200 espèces de Plantaginaceae au sens classique (c'est-à-dire dans la classification antérieure aux études phylogénétiques) sont caractérisées par des herbacées ou des plantes un peu ligneuses, à feuilles en rosette basale. Les petites fleurs discrètes sont blanches, brunâtres ou jaunâtres, sessiles, en épis ou en têtes denses, rarement solitaires ; les fleurs régulières ont un calice persistant à 4 divisions ; la corolle gamopétale, marcescente, scarieuse, imbriquée dans le bouton, a également 4 divisions ; l'androcée est composé de 4 étamines, longuement saillantes, alternes avec les lobes de la corolle, insérées à sa base, rarement sur le réceptacle ; les anthères sont mobiles, à 2 loges parallèles s'ouvrant en long ; l'ovaire libre comporte un style filiforme, à stigmate entier poilu-papilleux ; un fruit sec, à 1-4 loges à une ou plusieurs graines.
 Il faut bien remarquer, au vu des remaniements de la classification APBG III, que la description ci-dessus n'a plus beaucoup de sens. Reste la gamopetalie, les 4 divisions du calice et de la corolle. Voir s'il n'y a pas des exceptions. L'apparence vegetative est très variée. Les étamines deux ou quatre, etc
 </t>
         </is>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2018)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2018) :
 Acanthorrhinum
 Achetaria
 Adenosma
@@ -703,7 +723,7 @@
 Veronicastrum
 Wulfenia
 Wulfeniopsis
-Selon Angiosperm Phylogeny Website                        (8 Jul 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (8 Jul 2010) :
 Acanthorrhinum
 Achetaria
 Adenosma
@@ -805,7 +825,7 @@
 Veronicastrum
 Wulfenia
 Wulfeniopsis
-Selon NCBI  (8 Jul 2010)[5] :
+Selon NCBI  (8 Jul 2010) :
 tribu des Angelonieae
 Angelonia
 Basistemon
